--- a/OPM经济数值/活动_万圣节_幽灵.xlsx
+++ b/OPM经济数值/活动_万圣节_幽灵.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="副本产出" sheetId="3" r:id="rId1"/>
@@ -8782,7 +8782,7 @@
   <dimension ref="A1:AK402"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8894,7 +8894,7 @@
         <v>10041</v>
       </c>
       <c r="B3" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="10">
         <v>1</v>
@@ -8966,7 +8966,7 @@
         <v>10042</v>
       </c>
       <c r="B4" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="10">
         <v>1</v>
@@ -9038,7 +9038,7 @@
         <v>10043</v>
       </c>
       <c r="B5" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="10">
         <v>1</v>
@@ -9110,7 +9110,7 @@
         <v>10044</v>
       </c>
       <c r="B6" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
@@ -9170,7 +9170,7 @@
         <v>10045</v>
       </c>
       <c r="B7" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="10">
         <v>1</v>
@@ -9230,7 +9230,7 @@
         <v>10046</v>
       </c>
       <c r="B8" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="10">
         <v>1</v>
@@ -9290,7 +9290,7 @@
         <v>10047</v>
       </c>
       <c r="B9" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="10">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>10048</v>
       </c>
       <c r="B10" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C10" s="10">
         <v>1</v>
@@ -9410,7 +9410,7 @@
         <v>10049</v>
       </c>
       <c r="B11" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
@@ -9470,7 +9470,7 @@
         <v>10050</v>
       </c>
       <c r="B12" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" s="10">
         <v>1</v>
@@ -9530,7 +9530,7 @@
         <v>10051</v>
       </c>
       <c r="B13" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
@@ -9572,7 +9572,7 @@
         <v>10052</v>
       </c>
       <c r="B14" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C14" s="10">
         <v>1</v>
@@ -9614,7 +9614,7 @@
         <v>10053</v>
       </c>
       <c r="B15" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="10">
         <v>1</v>
@@ -9656,7 +9656,7 @@
         <v>10054</v>
       </c>
       <c r="B16" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="10">
         <v>1</v>
@@ -9698,7 +9698,7 @@
         <v>10055</v>
       </c>
       <c r="B17" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C17" s="10">
         <v>1</v>
@@ -9740,7 +9740,7 @@
         <v>10056</v>
       </c>
       <c r="B18" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="10">
         <v>1</v>
@@ -9780,8 +9780,8 @@
       <c r="A19" s="11">
         <v>10057</v>
       </c>
-      <c r="B19" s="14">
-        <v>10</v>
+      <c r="B19" s="9">
+        <v>11</v>
       </c>
       <c r="C19" s="10">
         <v>1</v>

--- a/OPM经济数值/活动_万圣节_幽灵.xlsx
+++ b/OPM经济数值/活动_万圣节_幽灵.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="副本产出" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="152">
   <si>
     <t>ep2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -688,25 +688,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>差南瓜礼盒挂到Boss身上</t>
-    <rPh sb="0" eb="1">
-      <t>cha</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>nan'gua</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>li'he</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>gua'dao</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shen'shang</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>29,1,0,0</t>
   </si>
   <si>
@@ -807,6 +788,43 @@
     <rPh sb="0" eb="1">
       <t>xian'jin</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill,1038101</t>
+  </si>
+  <si>
+    <t>skill,1038201</t>
+  </si>
+  <si>
+    <t>skill,1038202</t>
+  </si>
+  <si>
+    <t>skill,1038301</t>
+  </si>
+  <si>
+    <t>skill,1038401</t>
+  </si>
+  <si>
+    <t>skill,1038501</t>
+  </si>
+  <si>
+    <t>skill,1038502</t>
+  </si>
+  <si>
+    <t>skill,1038601</t>
+  </si>
+  <si>
+    <t>skill,1051101</t>
+  </si>
+  <si>
+    <t>skill,1051201</t>
+  </si>
+  <si>
+    <t>skill,1051501</t>
+  </si>
+  <si>
+    <t>prop,813,1|3333;0|6667</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5222,9 +5240,6 @@
           <cell r="B246" t="str">
             <v>战栗的龙卷普通技能卡</v>
           </cell>
-          <cell r="D246" t="str">
-            <v>skill,1</v>
-          </cell>
           <cell r="E246">
             <v>500</v>
           </cell>
@@ -5233,9 +5248,6 @@
           <cell r="B247" t="str">
             <v>战栗的龙卷主动技能卡-1</v>
           </cell>
-          <cell r="D247" t="str">
-            <v>skill,2</v>
-          </cell>
           <cell r="E247">
             <v>1000</v>
           </cell>
@@ -5244,9 +5256,6 @@
           <cell r="B248" t="str">
             <v>战栗的龙卷主动技能卡-2</v>
           </cell>
-          <cell r="D248" t="str">
-            <v>skill,3</v>
-          </cell>
           <cell r="E248">
             <v>1000</v>
           </cell>
@@ -5255,9 +5264,6 @@
           <cell r="B249" t="str">
             <v>战栗的龙卷特质1技能卡</v>
           </cell>
-          <cell r="D249" t="str">
-            <v>skill,4</v>
-          </cell>
           <cell r="E249">
             <v>500</v>
           </cell>
@@ -5266,9 +5272,6 @@
           <cell r="B250" t="str">
             <v>战栗的龙卷特质2技能卡</v>
           </cell>
-          <cell r="D250" t="str">
-            <v>skill,5</v>
-          </cell>
           <cell r="E250">
             <v>500</v>
           </cell>
@@ -5277,9 +5280,6 @@
           <cell r="B251" t="str">
             <v>战栗的龙卷特质3技能卡-1</v>
           </cell>
-          <cell r="D251" t="str">
-            <v>skill,6</v>
-          </cell>
           <cell r="E251">
             <v>500</v>
           </cell>
@@ -5288,9 +5288,6 @@
           <cell r="B252" t="str">
             <v>战栗的龙卷特质3技能卡-2</v>
           </cell>
-          <cell r="D252" t="str">
-            <v>skill,7</v>
-          </cell>
           <cell r="E252">
             <v>500</v>
           </cell>
@@ -5299,9 +5296,6 @@
           <cell r="B253" t="str">
             <v>战栗的龙卷特质4技能卡</v>
           </cell>
-          <cell r="D253" t="str">
-            <v>skill,8</v>
-          </cell>
           <cell r="E253">
             <v>500</v>
           </cell>
@@ -5310,9 +5304,6 @@
           <cell r="B254" t="str">
             <v>地狱的吹雪普通技能卡</v>
           </cell>
-          <cell r="D254" t="str">
-            <v>skill,9</v>
-          </cell>
           <cell r="E254">
             <v>300</v>
           </cell>
@@ -5321,9 +5312,6 @@
           <cell r="B255" t="str">
             <v>地狱的吹雪主动技能卡</v>
           </cell>
-          <cell r="D255" t="str">
-            <v>skill,10</v>
-          </cell>
           <cell r="E255">
             <v>600</v>
           </cell>
@@ -5331,9 +5319,6 @@
         <row r="256">
           <cell r="B256" t="str">
             <v>地狱的吹雪特质3技能卡</v>
-          </cell>
-          <cell r="D256" t="str">
-            <v>skill,11</v>
           </cell>
           <cell r="E256">
             <v>300</v>
@@ -5613,8 +5598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5997,9 +5982,7 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-      <c r="H15" s="23" t="s">
-        <v>109</v>
-      </c>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
@@ -6378,11 +6361,11 @@
       </c>
       <c r="H37" s="1" t="str">
         <f>I37</f>
-        <v>cash,20,100</v>
+        <v>cash,20|100</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f t="shared" ref="I37:I48" si="3">G37&amp;","&amp;E37</f>
-        <v>cash,20,100</v>
+        <f>G37&amp;"|"&amp;E37</f>
+        <v>cash,20|100</v>
       </c>
       <c r="N37" s="18"/>
       <c r="Q37" s="3"/>
@@ -6400,14 +6383,14 @@
         <v>50</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" ref="D38:D48" si="4">B38*C38</f>
+        <f t="shared" ref="D38:D48" si="3">B38*C38</f>
         <v>50</v>
       </c>
       <c r="E38" s="1">
         <v>100</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" ref="F38:F48" si="5">E38/SUM($E$37:$E$48)</f>
+        <f t="shared" ref="F38:F48" si="4">E38/SUM($E$37:$E$48)</f>
         <v>0.11904761904761904</v>
       </c>
       <c r="G38" s="1" t="str">
@@ -6416,11 +6399,11 @@
       </c>
       <c r="H38" s="1" t="str">
         <f>H37&amp;";"&amp;I38</f>
-        <v>cash,20,100;cash,50,100</v>
+        <v>cash,20|100;cash,50|100</v>
       </c>
       <c r="I38" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>cash,50,100</v>
+        <f t="shared" ref="I38:I48" si="5">G38&amp;"|"&amp;E38</f>
+        <v>cash,50|100</v>
       </c>
       <c r="N38" s="18"/>
       <c r="Q38" s="3"/>
@@ -6438,14 +6421,14 @@
         <v>888</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17.760000000000002</v>
       </c>
       <c r="E39" s="1">
         <v>100</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="G39" s="1" t="str">
@@ -6454,11 +6437,11 @@
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" ref="H39:H48" si="6">H38&amp;";"&amp;I39</f>
-        <v>cash,20,100;cash,50,100;coin,888,100</v>
+        <v>cash,20|100;cash,50|100;coin,888|100</v>
       </c>
       <c r="I39" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>coin,888,100</v>
+        <f t="shared" si="5"/>
+        <v>coin,888|100</v>
       </c>
       <c r="N39" s="18"/>
       <c r="Q39" s="3"/>
@@ -6475,14 +6458,14 @@
         <v>1666</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33.32</v>
       </c>
       <c r="E40" s="1">
         <v>100</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="G40" s="1" t="str">
@@ -6491,11 +6474,11 @@
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100</v>
       </c>
       <c r="I40" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>coin,1666,100</v>
+        <f t="shared" si="5"/>
+        <v>coin,1666|100</v>
       </c>
       <c r="N40" s="18"/>
       <c r="Q40" s="3"/>
@@ -6524,14 +6507,14 @@
         <v>2</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E41" s="1">
         <v>15</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1.7857142857142856E-2</v>
       </c>
       <c r="G41" s="1" t="str">
@@ -6540,11 +6523,11 @@
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15</v>
       </c>
       <c r="I41" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>prop,403,2,15</v>
+        <f t="shared" si="5"/>
+        <v>prop,403,2|15</v>
       </c>
       <c r="L41" s="22"/>
       <c r="N41" s="18"/>
@@ -6586,14 +6569,14 @@
         <v>2</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E42" s="1">
         <v>100</v>
       </c>
       <c r="F42" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="G42" s="1" t="str">
@@ -6602,11 +6585,11 @@
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100</v>
       </c>
       <c r="I42" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>prop,551,2,100</v>
+        <f t="shared" si="5"/>
+        <v>prop,551,2|100</v>
       </c>
       <c r="L42" s="22"/>
       <c r="N42" s="18"/>
@@ -6647,14 +6630,14 @@
         <v>1</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E43" s="1">
         <v>50</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.9523809523809521E-2</v>
       </c>
       <c r="G43" s="1" t="s">
@@ -6662,11 +6645,11 @@
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50</v>
       </c>
       <c r="I43" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>pack,701,50</v>
+        <f t="shared" si="5"/>
+        <v>pack,701|50</v>
       </c>
       <c r="L43" s="22"/>
       <c r="N43" s="1"/>
@@ -6707,14 +6690,14 @@
         <v>1</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="E44" s="1">
         <v>50</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.9523809523809521E-2</v>
       </c>
       <c r="G44" s="1" t="s">
@@ -6722,11 +6705,11 @@
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50;pack,702,50</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50;pack,702|50</v>
       </c>
       <c r="I44" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>pack,702,50</v>
+        <f t="shared" si="5"/>
+        <v>pack,702|50</v>
       </c>
       <c r="L44" s="22"/>
       <c r="N44" s="1"/>
@@ -6767,14 +6750,14 @@
         <v>1</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="E45" s="1">
         <v>30</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G45" s="1" t="s">
@@ -6782,11 +6765,11 @@
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50;pack,702,50;pack,703,30</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50;pack,702|50;pack,703|30</v>
       </c>
       <c r="I45" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>pack,703,30</v>
+        <f t="shared" si="5"/>
+        <v>pack,703|30</v>
       </c>
       <c r="L45" s="22"/>
       <c r="N45" s="1"/>
@@ -6828,14 +6811,14 @@
         <v>1</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="E46" s="1">
         <v>35</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="G46" s="1" t="str">
@@ -6844,11 +6827,11 @@
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50;pack,702,50;pack,703,30;prop,702,1,35</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50;pack,702|50;pack,703|30;prop,702,1|35</v>
       </c>
       <c r="I46" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>prop,702,1,35</v>
+        <f t="shared" si="5"/>
+        <v>prop,702,1|35</v>
       </c>
       <c r="L46" s="22"/>
       <c r="N46" s="1"/>
@@ -6890,14 +6873,14 @@
         <v>1</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="E47" s="1">
         <v>100</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11904761904761904</v>
       </c>
       <c r="G47" s="1" t="str">
@@ -6906,11 +6889,11 @@
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50;pack,702,50;pack,703,30;prop,702,1,35;prop,104,1,100</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50;pack,702|50;pack,703|30;prop,702,1|35;prop,104,1|100</v>
       </c>
       <c r="I47" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>prop,104,1,100</v>
+        <f t="shared" si="5"/>
+        <v>prop,104,1|100</v>
       </c>
       <c r="L47" s="22"/>
       <c r="N47" s="1"/>
@@ -6952,14 +6935,14 @@
         <v>1</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="E48" s="1">
         <v>60</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="G48" s="1" t="str">
@@ -6968,11 +6951,11 @@
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50;pack,702,50;pack,703,30;prop,702,1,35;prop,104,1,100;prop,105,1,60</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50;pack,702|50;pack,703|30;prop,702,1|35;prop,104,1|100;prop,105,1|60</v>
       </c>
       <c r="I48" s="1" t="str">
-        <f t="shared" si="3"/>
-        <v>prop,105,1,60</v>
+        <f t="shared" si="5"/>
+        <v>prop,105,1|60</v>
       </c>
       <c r="L48" s="22"/>
       <c r="N48" s="1"/>
@@ -7073,7 +7056,7 @@
       </c>
       <c r="C51" s="1" t="str">
         <f>H48</f>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50;pack,702,50;pack,703,30;prop,702,1,35;prop,104,1,100;prop,105,1,60</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50;pack,702|50;pack,703|30;prop,702,1|35;prop,104,1|100;prop,105,1|60</v>
       </c>
       <c r="L51" s="22"/>
       <c r="N51" s="1"/>
@@ -7179,6 +7162,15 @@
       <c r="AP53" s="19"/>
     </row>
     <row r="54" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>177</v>
+      </c>
+      <c r="B54" s="1">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="N54" s="1"/>
       <c r="Q54" s="3"/>
       <c r="S54" s="19"/>
@@ -7306,7 +7298,7 @@
   <dimension ref="A1:V30"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7410,11 +7402,11 @@
       </c>
       <c r="C6" s="1" t="str">
         <f>VLOOKUP(A6,价值设定!$B:$G,3,0)&amp;","&amp;E6</f>
-        <v>skill,10,1</v>
+        <v>skill,1051201,1</v>
       </c>
       <c r="D6" s="1" t="str">
         <f>IF(VLOOKUP(A6,价值设定!$B:$G,5,0)=0,C6,VLOOKUP(A6,价值设定!$B:$G,5,0)&amp;","&amp;E6)</f>
-        <v>skill,10,1</v>
+        <v>skill,1051201,1</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -7490,11 +7482,11 @@
       </c>
       <c r="C7" s="1" t="str">
         <f>VLOOKUP(A7,价值设定!$B:$G,3,0)&amp;","&amp;E7</f>
-        <v>skill,11,1</v>
+        <v>skill,1051501,1</v>
       </c>
       <c r="D7" s="1" t="str">
         <f>IF(VLOOKUP(A7,价值设定!$B:$G,5,0)=0,C7,VLOOKUP(A7,价值设定!$B:$G,5,0)&amp;","&amp;E7)</f>
-        <v>skill,11,1</v>
+        <v>skill,1051501,1</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
@@ -8032,7 +8024,7 @@
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" s="23">
         <f>VLOOKUP(A14,价值设定!$B:$G,6,0)</f>
@@ -8191,7 +8183,7 @@
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B16" s="23">
         <f>VLOOKUP(A16,价值设定!$B:$G,6,0)</f>
@@ -8781,8 +8773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -8791,7 +8783,8 @@
     <col min="2" max="2" width="8" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="8" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="8" style="14" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.83203125" style="14"/>
     <col min="13" max="13" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
@@ -8908,11 +8901,11 @@
       </c>
       <c r="F3" s="9" t="str">
         <f>商店兑换!D6</f>
-        <v>skill,10,1</v>
+        <v>skill,1051201,1</v>
       </c>
       <c r="G3" s="9" t="str">
         <f>商店兑换!C6</f>
-        <v>skill,10,1</v>
+        <v>skill,1051201,1</v>
       </c>
       <c r="H3" s="9">
         <f>商店兑换!O6</f>
@@ -8957,7 +8950,7 @@
       </c>
       <c r="X3" s="14" t="str">
         <f>副本产出!C51</f>
-        <v>cash,20,100;cash,50,100;coin,888,100;coin,1666,100;prop,403,2,15;prop,551,2,100;pack,701,50;pack,702,50;pack,703,30;prop,702,1,35;prop,104,1,100;prop,105,1,60</v>
+        <v>cash,20|100;cash,50|100;coin,888|100;coin,1666|100;prop,403,2|15;prop,551,2|100;pack,701|50;pack,702|50;pack,703|30;prop,702,1|35;prop,104,1|100;prop,105,1|60</v>
       </c>
       <c r="AB3" s="21"/>
     </row>
@@ -8980,11 +8973,11 @@
       </c>
       <c r="F4" s="9" t="str">
         <f>商店兑换!D7</f>
-        <v>skill,11,1</v>
+        <v>skill,1051501,1</v>
       </c>
       <c r="G4" s="9" t="str">
         <f>商店兑换!C7</f>
-        <v>skill,11,1</v>
+        <v>skill,1051501,1</v>
       </c>
       <c r="H4" s="9">
         <f>商店兑换!O7</f>
@@ -9837,26 +9830,26 @@
         <v>6150002</v>
       </c>
       <c r="J24" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K24" s="29"/>
       <c r="L24" s="29">
         <v>100</v>
       </c>
       <c r="M24" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="O24" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="N24" s="30" t="s">
-        <v>111</v>
-      </c>
-      <c r="O24" s="29" t="s">
+      <c r="P24" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="P24" s="30" t="s">
-        <v>113</v>
-      </c>
       <c r="Q24" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R24" s="28">
         <v>1</v>
@@ -9886,22 +9879,22 @@
         <v>0</v>
       </c>
       <c r="AA24" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB24" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB24" s="29" t="s">
+      <c r="AC24" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC24" s="29" t="s">
+      <c r="AD24" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD24" s="29" t="s">
+      <c r="AE24" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AE24" s="28" t="s">
+      <c r="AF24" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="AF24" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="AG24" s="31">
         <v>0</v>
@@ -9927,26 +9920,26 @@
         <v>6150002</v>
       </c>
       <c r="J25" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K25" s="29"/>
       <c r="L25" s="29">
         <v>100</v>
       </c>
       <c r="M25" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="N25" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="O25" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P25" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="N25" s="30" t="s">
+      <c r="Q25" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="O25" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P25" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q25" s="30" t="s">
-        <v>122</v>
       </c>
       <c r="R25" s="28">
         <v>1</v>
@@ -9976,22 +9969,22 @@
         <v>0</v>
       </c>
       <c r="AA25" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB25" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB25" s="29" t="s">
+      <c r="AC25" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC25" s="29" t="s">
+      <c r="AD25" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD25" s="29" t="s">
+      <c r="AE25" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AE25" s="28" t="s">
+      <c r="AF25" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="AF25" s="28" t="s">
-        <v>119</v>
       </c>
       <c r="AG25" s="31">
         <v>0</v>
@@ -10017,26 +10010,26 @@
         <v>6150002</v>
       </c>
       <c r="J26" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K26" s="29"/>
       <c r="L26" s="29">
         <v>100</v>
       </c>
       <c r="M26" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="N26" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="O26" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P26" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="N26" s="30" t="s">
+      <c r="Q26" s="30" t="s">
         <v>123</v>
-      </c>
-      <c r="O26" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P26" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="30" t="s">
-        <v>124</v>
       </c>
       <c r="R26" s="28">
         <v>1</v>
@@ -10066,22 +10059,22 @@
         <v>0</v>
       </c>
       <c r="AA26" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB26" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB26" s="29" t="s">
+      <c r="AC26" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC26" s="29" t="s">
+      <c r="AD26" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD26" s="29" t="s">
+      <c r="AE26" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AE26" s="28" t="s">
-        <v>118</v>
-      </c>
       <c r="AF26" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG26" s="31">
         <v>0</v>
@@ -10107,26 +10100,26 @@
         <v>6150002</v>
       </c>
       <c r="J27" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K27" s="29"/>
       <c r="L27" s="29">
         <v>100</v>
       </c>
       <c r="M27" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="N27" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P27" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="N27" s="30" t="s">
+      <c r="Q27" s="30" t="s">
         <v>126</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P27" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q27" s="30" t="s">
-        <v>127</v>
       </c>
       <c r="R27" s="28">
         <v>1</v>
@@ -10156,22 +10149,22 @@
         <v>0</v>
       </c>
       <c r="AA27" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB27" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB27" s="29" t="s">
+      <c r="AC27" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC27" s="29" t="s">
+      <c r="AD27" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD27" s="29" t="s">
+      <c r="AE27" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AE27" s="28" t="s">
-        <v>118</v>
-      </c>
       <c r="AF27" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG27" s="31">
         <v>0</v>
@@ -10197,26 +10190,26 @@
         <v>6150002</v>
       </c>
       <c r="J28" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K28" s="29"/>
       <c r="L28" s="29">
         <v>100</v>
       </c>
       <c r="M28" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="N28" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="O28" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P28" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="N28" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="O28" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P28" s="30" t="s">
+      <c r="Q28" s="30" t="s">
         <v>129</v>
-      </c>
-      <c r="Q28" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="R28" s="28">
         <v>1</v>
@@ -10246,22 +10239,22 @@
         <v>0</v>
       </c>
       <c r="AA28" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB28" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB28" s="29" t="s">
+      <c r="AC28" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC28" s="29" t="s">
+      <c r="AD28" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD28" s="29" t="s">
+      <c r="AE28" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="AE28" s="28" t="s">
-        <v>118</v>
-      </c>
       <c r="AF28" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG28" s="31">
         <v>0</v>
@@ -10287,26 +10280,26 @@
         <v>6150002</v>
       </c>
       <c r="J29" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K29" s="29"/>
       <c r="L29" s="29">
         <v>100</v>
       </c>
       <c r="M29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="N29" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="O29" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="N29" s="30" t="s">
+      <c r="Q29" s="30" t="s">
         <v>131</v>
-      </c>
-      <c r="O29" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P29" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q29" s="30" t="s">
-        <v>132</v>
       </c>
       <c r="R29" s="28">
         <v>1</v>
@@ -10336,22 +10329,22 @@
         <v>0</v>
       </c>
       <c r="AA29" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB29" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB29" s="29" t="s">
+      <c r="AC29" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC29" s="29" t="s">
+      <c r="AD29" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD29" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="AE29" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF29" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG29" s="31">
         <v>0</v>
@@ -10377,26 +10370,26 @@
         <v>6150002</v>
       </c>
       <c r="J30" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K30" s="29"/>
       <c r="L30" s="29">
         <v>100</v>
       </c>
       <c r="M30" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N30" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O30" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P30" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q30" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R30" s="28">
         <v>1</v>
@@ -10426,22 +10419,22 @@
         <v>0</v>
       </c>
       <c r="AA30" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB30" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB30" s="29" t="s">
+      <c r="AC30" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC30" s="29" t="s">
+      <c r="AD30" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD30" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="AE30" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF30" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG30" s="31">
         <v>0</v>
@@ -10467,26 +10460,26 @@
         <v>6150002</v>
       </c>
       <c r="J31" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K31" s="29"/>
       <c r="L31" s="29">
         <v>100</v>
       </c>
       <c r="M31" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N31" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="O31" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P31" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q31" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R31" s="28">
         <v>1</v>
@@ -10516,22 +10509,22 @@
         <v>0</v>
       </c>
       <c r="AA31" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB31" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB31" s="29" t="s">
+      <c r="AC31" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC31" s="29" t="s">
+      <c r="AD31" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD31" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="AE31" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF31" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG31" s="31">
         <v>0</v>
@@ -10557,26 +10550,26 @@
         <v>6150002</v>
       </c>
       <c r="J32" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K32" s="29"/>
       <c r="L32" s="29">
         <v>100</v>
       </c>
       <c r="M32" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="N32" s="30" t="s">
+        <v>135</v>
+      </c>
+      <c r="O32" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P32" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="N32" s="30" t="s">
+      <c r="Q32" s="30" t="s">
         <v>136</v>
-      </c>
-      <c r="O32" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="P32" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q32" s="30" t="s">
-        <v>137</v>
       </c>
       <c r="R32" s="28">
         <v>1</v>
@@ -10606,22 +10599,22 @@
         <v>0</v>
       </c>
       <c r="AA32" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB32" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB32" s="29" t="s">
+      <c r="AC32" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC32" s="29" t="s">
+      <c r="AD32" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD32" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="AE32" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF32" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG32" s="31">
         <v>0</v>
@@ -10647,26 +10640,26 @@
         <v>6150002</v>
       </c>
       <c r="J33" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K33" s="29"/>
       <c r="L33" s="29">
         <v>100</v>
       </c>
       <c r="M33" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N33" s="30" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O33" s="29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="P33" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q33" s="30" t="s">
         <v>129</v>
-      </c>
-      <c r="Q33" s="30" t="s">
-        <v>130</v>
       </c>
       <c r="R33" s="28">
         <v>1</v>
@@ -10696,22 +10689,22 @@
         <v>0</v>
       </c>
       <c r="AA33" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB33" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="AB33" s="29" t="s">
+      <c r="AC33" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="AC33" s="29" t="s">
+      <c r="AD33" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="AD33" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="AE33" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF33" s="28" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AG33" s="31">
         <v>0</v>
@@ -11852,8 +11845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G280"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="D246" sqref="D246:D256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -19223,9 +19216,8 @@
         <f>[1]物品定价!C246</f>
         <v>0</v>
       </c>
-      <c r="D246" s="1" t="str">
-        <f>[1]物品定价!D246</f>
-        <v>skill,1</v>
+      <c r="D246" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="E246" s="1">
         <f>[1]物品定价!E246</f>
@@ -19253,9 +19245,8 @@
         <f>[1]物品定价!C247</f>
         <v>0</v>
       </c>
-      <c r="D247" s="1" t="str">
-        <f>[1]物品定价!D247</f>
-        <v>skill,2</v>
+      <c r="D247" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="E247" s="1">
         <f>[1]物品定价!E247</f>
@@ -19283,9 +19274,8 @@
         <f>[1]物品定价!C248</f>
         <v>0</v>
       </c>
-      <c r="D248" s="1" t="str">
-        <f>[1]物品定价!D248</f>
-        <v>skill,3</v>
+      <c r="D248" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="E248" s="1">
         <f>[1]物品定价!E248</f>
@@ -19313,9 +19303,8 @@
         <f>[1]物品定价!C249</f>
         <v>0</v>
       </c>
-      <c r="D249" s="1" t="str">
-        <f>[1]物品定价!D249</f>
-        <v>skill,4</v>
+      <c r="D249" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="E249" s="1">
         <f>[1]物品定价!E249</f>
@@ -19343,9 +19332,8 @@
         <f>[1]物品定价!C250</f>
         <v>0</v>
       </c>
-      <c r="D250" s="1" t="str">
-        <f>[1]物品定价!D250</f>
-        <v>skill,5</v>
+      <c r="D250" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="E250" s="1">
         <f>[1]物品定价!E250</f>
@@ -19373,9 +19361,8 @@
         <f>[1]物品定价!C251</f>
         <v>0</v>
       </c>
-      <c r="D251" s="1" t="str">
-        <f>[1]物品定价!D251</f>
-        <v>skill,6</v>
+      <c r="D251" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="E251" s="1">
         <f>[1]物品定价!E251</f>
@@ -19403,9 +19390,8 @@
         <f>[1]物品定价!C252</f>
         <v>0</v>
       </c>
-      <c r="D252" s="1" t="str">
-        <f>[1]物品定价!D252</f>
-        <v>skill,7</v>
+      <c r="D252" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="E252" s="1">
         <f>[1]物品定价!E252</f>
@@ -19433,9 +19419,8 @@
         <f>[1]物品定价!C253</f>
         <v>0</v>
       </c>
-      <c r="D253" s="1" t="str">
-        <f>[1]物品定价!D253</f>
-        <v>skill,8</v>
+      <c r="D253" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="E253" s="1">
         <f>[1]物品定价!E253</f>
@@ -19463,9 +19448,8 @@
         <f>[1]物品定价!C254</f>
         <v>0</v>
       </c>
-      <c r="D254" s="1" t="str">
-        <f>[1]物品定价!D254</f>
-        <v>skill,9</v>
+      <c r="D254" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="E254" s="1">
         <f>[1]物品定价!E254</f>
@@ -19493,9 +19477,8 @@
         <f>[1]物品定价!C255</f>
         <v>0</v>
       </c>
-      <c r="D255" s="1" t="str">
-        <f>[1]物品定价!D255</f>
-        <v>skill,10</v>
+      <c r="D255" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="E255" s="1">
         <f>[1]物品定价!E255</f>
@@ -19523,9 +19506,8 @@
         <f>[1]物品定价!C256</f>
         <v>0</v>
       </c>
-      <c r="D256" s="1" t="str">
-        <f>[1]物品定价!D256</f>
-        <v>skill,11</v>
+      <c r="D256" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="E256" s="1">
         <f>[1]物品定价!E256</f>
